--- a/sweep_Nk_summary.xlsx
+++ b/sweep_Nk_summary.xlsx
@@ -493,28 +493,28 @@
         <v>51</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
         <v>1000</v>
       </c>
       <c r="E2" t="n">
-        <v>58.95245265960693</v>
+        <v>63.87830257415771</v>
       </c>
       <c r="F2" t="n">
-        <v>3182</v>
+        <v>3198</v>
       </c>
       <c r="G2" t="n">
-        <v>9.0921857918147e-06</v>
+        <v>9.702455827209633e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>1.434039109682317e-08</v>
+        <v>1.588432319010735e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006778240203857422</v>
+        <v>0.00064869225025177</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002100465539687186</v>
+        <v>0.0002929917159580373</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +525,28 @@
         <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>501</v>
       </c>
       <c r="D3" t="n">
         <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>63.59783005714417</v>
+        <v>129.8658046722412</v>
       </c>
       <c r="F3" t="n">
-        <v>3215</v>
+        <v>3138</v>
       </c>
       <c r="G3" t="n">
-        <v>7.064975761750247e-06</v>
+        <v>1.511430491518695e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>1.807456229130366e-08</v>
+        <v>5.67453000144269e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007684528827667236</v>
+        <v>0.001206845045089722</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002392856034849849</v>
+        <v>0.0004251761442544537</v>
       </c>
     </row>
     <row r="4">
@@ -557,28 +557,28 @@
         <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>2501</v>
       </c>
       <c r="D4" t="n">
         <v>1000</v>
       </c>
       <c r="E4" t="n">
-        <v>60.75051999092102</v>
+        <v>553.5110566616058</v>
       </c>
       <c r="F4" t="n">
-        <v>3177</v>
+        <v>3230</v>
       </c>
       <c r="G4" t="n">
-        <v>8.550335223844741e-06</v>
+        <v>8.077319762378465e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>1.343627165084627e-08</v>
+        <v>1.370848590198648e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003923471085727215</v>
+        <v>0.0005379617214202881</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002478617531859185</v>
+        <v>0.0003017628514064702</v>
       </c>
     </row>
     <row r="5">
@@ -589,28 +589,28 @@
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>101</v>
+        <v>5001</v>
       </c>
       <c r="D5" t="n">
         <v>1000</v>
       </c>
       <c r="E5" t="n">
-        <v>71.92972421646118</v>
+        <v>1118.804537057877</v>
       </c>
       <c r="F5" t="n">
-        <v>3229</v>
+        <v>3245</v>
       </c>
       <c r="G5" t="n">
-        <v>7.734575774520636e-06</v>
+        <v>9.144574505626224e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>1.337541633006367e-08</v>
+        <v>2.618719463498564e-08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006642937660217285</v>
+        <v>0.0006751418113708496</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002723662290150885</v>
+        <v>0.0003188170885263972</v>
       </c>
     </row>
   </sheetData>
